--- a/models/log_orinigs.xlsx
+++ b/models/log_orinigs.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Event</t>
   </si>
@@ -96,6 +97,48 @@
   </si>
   <si>
     <t>("{alma.Control.Array.AutomaticArrayOperationalState::observe}")</t>
+  </si>
+  <si>
+    <t>("Beginning SB execution"), ("alma.Control.Array.AutomaticArrayOperationalState$SBExecutor")</t>
+  </si>
+  <si>
+    <t>"(Received ASDM archived notification for DataCapturer)", "(alma.Control.Array.AutomaticArrayOperationalState)"</t>
+  </si>
+  <si>
+    <t>asdm.archived</t>
+  </si>
+  <si>
+    <t>SBexecutor.run</t>
+  </si>
+  <si>
+    <t>"(Deactivating offshoots.)"</t>
+  </si>
+  <si>
+    <t>offshots.deactivate</t>
+  </si>
+  <si>
+    <t>cleanUp</t>
+  </si>
+  <si>
+    <t>doScanSequence</t>
+  </si>
+  <si>
+    <t>"(Starting doScanSequence)"</t>
+  </si>
+  <si>
+    <t>"(Starting doSubscanSequence)"</t>
+  </si>
+  <si>
+    <t>"(Single dish observing mode shutting down.)"</t>
+  </si>
+  <si>
+    <t>"(Single dish observing mode starting up.)"</t>
+  </si>
+  <si>
+    <t>SingleDishObserving.constructor</t>
+  </si>
+  <si>
+    <t>doSubscanSequence</t>
   </si>
 </sst>
 </file>
@@ -419,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,6 +588,99 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>230</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>655</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>824</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
